--- a/dongxw-service/src/main/resources/templates/bom_template.xlsx
+++ b/dongxw-service/src/main/resources/templates/bom_template.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13140"/>
+    <workbookView windowWidth="23295" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="EP-001394" sheetId="1" r:id="rId1"/>
+    <sheet name="WpsReserved_CellImgList" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -67,8 +68,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -128,21 +129,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,67 +208,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,6 +222,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -231,46 +262,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,19 +292,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,31 +430,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,127 +460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,17 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -597,54 +587,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,8 +609,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,10 +681,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,142 +693,142 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -950,6 +951,53 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>401637</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>16827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>172402</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>151447</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6924675" y="-1270"/>
+          <a:ext cx="1258570" cy="1294130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -1449,7 +1497,7 @@
   <dimension ref="B1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1649,4 +1697,20 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>